--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -46,102 +46,96 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>item</t>
+    <t>hard</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -175,13 +169,19 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +556,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
         <v>58</v>
@@ -617,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.6037735849056604</v>
@@ -817,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7184466019417476</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.578125</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>0.4927536231884058</v>
@@ -917,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.3672131147540983</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L9">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="M9">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6554054054054054</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C10">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.3362068965517241</v>
+        <v>0.3486370157819225</v>
       </c>
       <c r="L10">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M10">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.3070539419087137</v>
+        <v>0.3112033195020747</v>
       </c>
       <c r="L11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5630252100840336</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.2349397590361446</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5180722891566265</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>166</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="L13">
         <v>40</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13">
-        <v>0.2232415902140673</v>
-      </c>
-      <c r="L13">
-        <v>73</v>
-      </c>
       <c r="M13">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>254</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4985507246376812</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.1851851851851852</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4761904761904762</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.09640666082383874</v>
+        <v>0.1865443425076453</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1031</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,63 +1267,63 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4330708661417323</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>52</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>72</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K16">
-        <v>0.05519480519480519</v>
+        <v>0.1244979919678715</v>
       </c>
       <c r="L16">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3707865168539326</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,21 +1335,45 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17">
+        <v>0.1087719298245614</v>
+      </c>
+      <c r="L17">
+        <v>124</v>
+      </c>
+      <c r="M17">
+        <v>125</v>
+      </c>
+      <c r="N17">
+        <v>0.99</v>
+      </c>
+      <c r="O17">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3514851485148515</v>
+        <v>0.3671875</v>
       </c>
       <c r="C18">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1361,21 +1385,45 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <v>0.04935064935064935</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+      <c r="M18">
+        <v>77</v>
+      </c>
+      <c r="N18">
+        <v>0.99</v>
+      </c>
+      <c r="O18">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3473684210526316</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1387,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.34375</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1413,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3222748815165877</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1439,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.264957264957265</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1465,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2525773195876289</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1491,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2173913043478261</v>
+        <v>0.215</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1517,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2151898734177215</v>
+        <v>0.2120253164556962</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1543,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2032640949554896</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C26">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1569,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.19</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1595,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.180379746835443</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1621,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1563876651982379</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1647,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1551724137931035</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1673,47 +1721,47 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1495327102803738</v>
+        <v>0.1376518218623482</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1169354838709677</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1725,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>219</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1733,13 +1781,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1123595505617977</v>
+        <v>0.08685968819599109</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1751,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>237</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1759,25 +1807,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1013698630136986</v>
+        <v>0.06919275123558484</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>328</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1785,77 +1833,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.06919275123558484</v>
+        <v>0.04689480354879594</v>
       </c>
       <c r="C35">
+        <v>37</v>
+      </c>
+      <c r="D35">
         <v>42</v>
       </c>
-      <c r="D35">
-        <v>43</v>
-      </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.06711409395973154</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>32</v>
-      </c>
-      <c r="E36">
-        <v>0.06</v>
-      </c>
-      <c r="F36">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0379746835443038</v>
-      </c>
-      <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37">
-        <v>34</v>
-      </c>
-      <c r="E37">
-        <v>0.12</v>
-      </c>
-      <c r="F37">
-        <v>0.88</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
